--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BLCMCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BLCMCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>BLCMCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45.399570964682226</v>
       </c>
       <c r="C2" t="n">
-        <v>8.514388657354209</v>
+        <v>31.680259749686915</v>
       </c>
       <c r="D2" t="n">
-        <v>6.018627461587759</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11.010149853120657</v>
+        <v>59.11888217967754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>46.35809318214585</v>
       </c>
       <c r="C3" t="n">
-        <v>10.184414463140154</v>
+        <v>29.50447338872962</v>
       </c>
       <c r="D3" t="n">
-        <v>7.339114187499344</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.029714738780964</v>
+        <v>63.211712975562065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>44.95163452549689</v>
       </c>
       <c r="C4" t="n">
-        <v>9.081377094042871</v>
+        <v>25.816929153034984</v>
       </c>
       <c r="D4" t="n">
-        <v>5.986815397428063</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.175938790657678</v>
+        <v>64.0863398979588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45.03357020022818</v>
       </c>
       <c r="C5" t="n">
-        <v>9.692440260909015</v>
+        <v>23.919582124777783</v>
       </c>
       <c r="D5" t="n">
-        <v>6.413643958155998</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.971236563662032</v>
+        <v>66.14755827567858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>45.02226658811696</v>
       </c>
       <c r="C6" t="n">
-        <v>8.460199463494622</v>
+        <v>22.1089994928559</v>
       </c>
       <c r="D6" t="n">
-        <v>5.042347039796932</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.87805188719231</v>
+        <v>67.93553368337803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46.066295025043715</v>
       </c>
       <c r="C7" t="n">
-        <v>10.088782170037842</v>
+        <v>21.48678020803772</v>
       </c>
       <c r="D7" t="n">
-        <v>6.564548339806967</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.613016000268717</v>
+        <v>70.64580984204972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44.675686195827666</v>
       </c>
       <c r="C8" t="n">
-        <v>8.948838010563627</v>
+        <v>18.536214391645423</v>
       </c>
       <c r="D8" t="n">
-        <v>5.342467434071502</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.55520858705575</v>
+        <v>70.81515800000992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44.76055986771555</v>
       </c>
       <c r="C9" t="n">
-        <v>9.527034157327115</v>
+        <v>17.14917476195106</v>
       </c>
       <c r="D9" t="n">
-        <v>5.856830620535485</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.197237694118746</v>
+        <v>72.37194497348004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>44.74980085631551</v>
       </c>
       <c r="C10" t="n">
-        <v>8.265523921974728</v>
+        <v>15.741101075542424</v>
       </c>
       <c r="D10" t="n">
-        <v>4.545475476956079</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.985572366993376</v>
+        <v>73.75850063708859</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45.793930242943304</v>
       </c>
       <c r="C11" t="n">
-        <v>9.868040985982349</v>
+        <v>15.452199227246663</v>
       </c>
       <c r="D11" t="n">
-        <v>6.1089322484390385</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.627149723525658</v>
+        <v>76.13566125863994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44.40334012622971</v>
       </c>
       <c r="C12" t="n">
-        <v>8.70488429601018</v>
+        <v>12.784728502343166</v>
       </c>
       <c r="D12" t="n">
-        <v>4.915084484044555</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12.494684107975804</v>
+        <v>76.02195175011624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44.488217266753395</v>
       </c>
       <c r="C13" t="n">
-        <v>9.262408726303127</v>
+        <v>11.64232623504402</v>
       </c>
       <c r="D13" t="n">
-        <v>5.4484445301699385</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.076372922436315</v>
+        <v>77.33410829846277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>44.477458898315696</v>
       </c>
       <c r="C14" t="n">
-        <v>7.982489474239867</v>
+        <v>10.448522481040186</v>
       </c>
       <c r="D14" t="n">
-        <v>4.149469693128206</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11.815509255351529</v>
+        <v>78.5063953155912</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>45.52158840412595</v>
       </c>
       <c r="C15" t="n">
-        <v>9.568612549062115</v>
+        <v>10.3493767932537</v>
       </c>
       <c r="D15" t="n">
-        <v>5.720547566312858</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.416677531811372</v>
+        <v>80.6938000149982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>44.13099830950457</v>
       </c>
       <c r="C16" t="n">
-        <v>8.390856335083244</v>
+        <v>7.8515216665367635</v>
       </c>
       <c r="D16" t="n">
-        <v>4.530901243280502</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.250811426885985</v>
+        <v>80.41047495247238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>44.21587545412338</v>
       </c>
       <c r="C17" t="n">
-        <v>8.935379286674934</v>
+        <v>6.861941506393531</v>
       </c>
       <c r="D17" t="n">
-        <v>5.066020558243219</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.80473801510665</v>
+        <v>81.56980940185322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>44.205117086444766</v>
       </c>
       <c r="C18" t="n">
-        <v>7.643881681211821</v>
+        <v>5.806779397758973</v>
       </c>
       <c r="D18" t="n">
-        <v>3.7670814871315503</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11.520681875292093</v>
+        <v>82.60345477513056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>45.249246592395735</v>
       </c>
       <c r="C19" t="n">
-        <v>9.21969375445246</v>
+        <v>5.834169614959858</v>
       </c>
       <c r="D19" t="n">
-        <v>5.337002144099241</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13.10238536480568</v>
+        <v>84.66432356983162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>43.85865649780044</v>
       </c>
       <c r="C20" t="n">
-        <v>8.032755167994159</v>
+        <v>3.4524162740426916</v>
       </c>
       <c r="D20" t="n">
-        <v>4.145397637215364</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11.920112698772954</v>
+        <v>84.26489672155819</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>43.94353364242407</v>
       </c>
       <c r="C21" t="n">
-        <v>8.569100837904372</v>
+        <v>2.569868045781103</v>
       </c>
       <c r="D21" t="n">
-        <v>4.678046912878829</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.460154762929916</v>
+        <v>85.31719923906704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>43.93277527474636</v>
       </c>
       <c r="C22" t="n">
-        <v>7.270321025598961</v>
+        <v>1.6137941813214591</v>
       </c>
       <c r="D22" t="n">
-        <v>3.376338119057297</v>
-      </c>
-      <c r="E22" t="n">
-        <v>11.164303932140626</v>
+        <v>86.25175636817127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>44.976904780697495</v>
       </c>
       <c r="C23" t="n">
-        <v>8.839647993084451</v>
+        <v>1.7332680618868004</v>
       </c>
       <c r="D23" t="n">
-        <v>4.943343782953184</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12.735952203215719</v>
+        <v>88.22054149950819</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>43.58631468610222</v>
       </c>
       <c r="C24" t="n">
-        <v>7.646934152288253</v>
+        <v>-0.5626159074160015</v>
       </c>
       <c r="D24" t="n">
-        <v>3.7487899832377116</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11.545078321338796</v>
+        <v>87.73524527962044</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43.67119183072587</v>
       </c>
       <c r="C25" t="n">
-        <v>8.178136719845675</v>
+        <v>-1.364838505373992</v>
       </c>
       <c r="D25" t="n">
-        <v>4.278533963318975</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12.077739476372374</v>
+        <v>88.70722216682572</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>43.66043346304815</v>
       </c>
       <c r="C26" t="n">
-        <v>6.874776762621322</v>
+        <v>-2.2455572605700884</v>
       </c>
       <c r="D26" t="n">
-        <v>2.9740176410105907</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10.775535884232054</v>
+        <v>89.56642418666638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>44.704562968999284</v>
       </c>
       <c r="C27" t="n">
-        <v>8.44002492201794</v>
+        <v>-2.055205424350792</v>
       </c>
       <c r="D27" t="n">
-        <v>4.5383489728418756</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12.341700871194003</v>
+        <v>91.46433136234936</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>43.313972874404016</v>
       </c>
       <c r="C28" t="n">
-        <v>7.243678734271959</v>
+        <v>-4.284261295390122</v>
       </c>
       <c r="D28" t="n">
-        <v>3.3412758355298737</v>
-      </c>
-      <c r="E28" t="n">
-        <v>11.146081633014045</v>
+        <v>90.91220704419815</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43.398850019027655</v>
       </c>
       <c r="C29" t="n">
-        <v>7.771646546950967</v>
+        <v>-5.023333450590645</v>
       </c>
       <c r="D29" t="n">
-        <v>3.868667227121809</v>
-      </c>
-      <c r="E29" t="n">
-        <v>11.674625866780126</v>
+        <v>91.82103348864595</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>43.388091651349946</v>
       </c>
       <c r="C30" t="n">
-        <v>6.4654059069977725</v>
+        <v>-5.844253487269981</v>
       </c>
       <c r="D30" t="n">
-        <v>2.561969509015129</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10.368842304980417</v>
+        <v>92.62043678996987</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>44.43222115730107</v>
       </c>
       <c r="C31" t="n">
-        <v>8.028088699528528</v>
+        <v>-5.597167842875717</v>
       </c>
       <c r="D31" t="n">
-        <v>4.124289847478076</v>
-      </c>
-      <c r="E31" t="n">
-        <v>11.93188755157898</v>
+        <v>94.46161015747786</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>43.041631062705804</v>
       </c>
       <c r="C32" t="n">
-        <v>6.829457946706856</v>
+        <v>-7.772301274929978</v>
       </c>
       <c r="D32" t="n">
-        <v>2.925371669396103</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10.73354422401761</v>
+        <v>93.8555634003416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>43.12650820732945</v>
       </c>
       <c r="C33" t="n">
-        <v>7.3553912598939934</v>
+        <v>-8.46003728174789</v>
       </c>
       <c r="D33" t="n">
-        <v>3.451077051070189</v>
-      </c>
-      <c r="E33" t="n">
-        <v>11.259705468717797</v>
+        <v>94.71305369640679</v>
       </c>
     </row>
   </sheetData>
